--- a/artfynd/A 51149-2025 artfynd.xlsx
+++ b/artfynd/A 51149-2025 artfynd.xlsx
@@ -1274,7 +1274,7 @@
         <v>131024917</v>
       </c>
       <c r="B8" t="n">
-        <v>96349</v>
+        <v>96353</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>131024929</v>
       </c>
       <c r="B9" t="n">
-        <v>91330</v>
+        <v>91334</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>131024927</v>
       </c>
       <c r="B10" t="n">
-        <v>93120</v>
+        <v>93124</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>131024928</v>
       </c>
       <c r="B11" t="n">
-        <v>93120</v>
+        <v>93124</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/artfynd/A 51149-2025 artfynd.xlsx
+++ b/artfynd/A 51149-2025 artfynd.xlsx
@@ -1274,7 +1274,7 @@
         <v>131024917</v>
       </c>
       <c r="B8" t="n">
-        <v>96353</v>
+        <v>96354</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>131024929</v>
       </c>
       <c r="B9" t="n">
-        <v>91334</v>
+        <v>91335</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>131024927</v>
       </c>
       <c r="B10" t="n">
-        <v>93124</v>
+        <v>93125</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>131024928</v>
       </c>
       <c r="B11" t="n">
-        <v>93124</v>
+        <v>93125</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/artfynd/A 51149-2025 artfynd.xlsx
+++ b/artfynd/A 51149-2025 artfynd.xlsx
@@ -1274,7 +1274,7 @@
         <v>131024917</v>
       </c>
       <c r="B8" t="n">
-        <v>96354</v>
+        <v>96355</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>131024929</v>
       </c>
       <c r="B9" t="n">
-        <v>91335</v>
+        <v>91336</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>131024927</v>
       </c>
       <c r="B10" t="n">
-        <v>93125</v>
+        <v>93126</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>131024928</v>
       </c>
       <c r="B11" t="n">
-        <v>93125</v>
+        <v>93126</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/artfynd/A 51149-2025 artfynd.xlsx
+++ b/artfynd/A 51149-2025 artfynd.xlsx
@@ -1274,7 +1274,7 @@
         <v>131024917</v>
       </c>
       <c r="B8" t="n">
-        <v>96355</v>
+        <v>96358</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>131024929</v>
       </c>
       <c r="B9" t="n">
-        <v>91336</v>
+        <v>91339</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>131024927</v>
       </c>
       <c r="B10" t="n">
-        <v>93126</v>
+        <v>93129</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>131024928</v>
       </c>
       <c r="B11" t="n">
-        <v>93126</v>
+        <v>93129</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/artfynd/A 51149-2025 artfynd.xlsx
+++ b/artfynd/A 51149-2025 artfynd.xlsx
@@ -1274,7 +1274,7 @@
         <v>131024917</v>
       </c>
       <c r="B8" t="n">
-        <v>96358</v>
+        <v>96359</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>131024929</v>
       </c>
       <c r="B9" t="n">
-        <v>91339</v>
+        <v>91340</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>131024927</v>
       </c>
       <c r="B10" t="n">
-        <v>93129</v>
+        <v>93130</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>131024928</v>
       </c>
       <c r="B11" t="n">
-        <v>93129</v>
+        <v>93130</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
